--- a/inst/extdata/testDataerror1.xlsx
+++ b/inst/extdata/testDataerror1.xlsx
@@ -107,24 +107,17 @@
       <b/>
       <i/>
       <sz val="18"/>
-      <color rgb="FFC00000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9C5AD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -416,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,25 +480,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,7 +872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -905,7 +883,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.2"/>
@@ -966,32 +944,32 @@
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="2">
         <v>41794</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1028,19 +1006,19 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="2">
         <v>41794</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="15" t="s">
         <v>8</v>
       </c>
     </row>
